--- a/reports/fubon_formal_avg_1y_2001.xlsx
+++ b/reports/fubon_formal_avg_1y_2001.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Shared/GRASSS/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8FF0785F-5B5D-AF41-9AB3-0C5DFC31228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D18B6BDD-D9BB-814F-9D18-362BC8FFFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24720" windowHeight="15000"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="24720" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fubon_formal_avg_1y_2001" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="31" uniqueCount="31">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="36" uniqueCount="35">
   <si>
     <t>2001+1</t>
   </si>
@@ -128,11 +128,23 @@
   <si>
     <t>自選</t>
   </si>
+  <si>
+    <t>2007年－2008年環球金融危機</t>
+  </si>
+  <si>
+    <t>2011 年 8 月股災：美債風暴</t>
+  </si>
+  <si>
+    <t>2015 年 8 月股災：中國股災引發</t>
+  </si>
+  <si>
+    <t>2018 年 10 月股災：貿易戰風暴</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3295,16 +3307,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>50</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -3362,7 +3374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3420,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>0.14745370770734192</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>0.16228032096466577</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +3531,7 @@
         <v>0.17797578855645982</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3552,7 +3564,7 @@
         <v>0.16783378836355647</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3584,8 +3596,11 @@
         <f t="shared" si="0"/>
         <v>-3.1966698252653546E-2</v>
       </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3617,8 +3632,11 @@
         <f t="shared" si="0"/>
         <v>-0.30866078940666902</v>
       </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>0.4238952987913614</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3684,7 +3702,7 @@
         <v>0.19727625152561498</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3716,8 +3734,11 @@
         <f t="shared" si="0"/>
         <v>-9.4011095385548193E-2</v>
       </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3750,7 +3771,7 @@
         <v>0.14244402187539926</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3783,7 +3804,7 @@
         <v>0.11629403959211226</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3816,7 +3837,7 @@
         <v>0.12519756855861977</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3848,8 +3869,11 @@
         <f>(C17+E17+F17+1.5*G17+1.5*H17)/6</f>
         <v>-1.211121360335205E-2</v>
       </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3906,7 @@
         <v>7.8531684278418099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3915,7 +3939,7 @@
         <v>6.9107421331524838E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3947,8 +3971,11 @@
         <f t="shared" si="0"/>
         <v>7.7365677427918403E-2</v>
       </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +4008,7 @@
         <v>0.21806361946803599</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4014,7 +4041,7 @@
         <v>0.28875632846893823</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>

--- a/reports/fubon_formal_avg_1y_2001.xlsx
+++ b/reports/fubon_formal_avg_1y_2001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Shared/GRASSS/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D18B6BDD-D9BB-814F-9D18-362BC8FFFD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5792CD95-8A41-9744-AAEB-09A57E1BFB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="24720" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="36" uniqueCount="35">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="37" uniqueCount="36">
   <si>
     <t>2001+1</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>2018 年 10 月股災：貿易戰風暴</t>
+  </si>
+  <si>
+    <t>自選2</t>
   </si>
 </sst>
 </file>
@@ -2209,6 +2212,170 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-2880-7C44-812D-81DB7E2C854D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fubon_formal_avg_1y_2001!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自選2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>fubon_formal_avg_1y_2001!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2003+1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004+1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005+1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006+1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007+1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008+1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009+1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010+1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011+1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012+1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013+1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014+1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015+1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016+1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017+1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018+1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019+1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020+1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021+1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fubon_formal_avg_1y_2001!$K$5:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.16537256146773549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13384255682695831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21866557141753437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15765996801293505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.842206486237827E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30049840825371293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42810178639738589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16641844893338764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.352877581926837E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13903411249764411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1370724827865408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10609098777904093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4322056486918886E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5107085557156427E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5888988251927367E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6910816401821022E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24520298570033727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31334500597701759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14303381613264565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE55-D741-B629-682A0C6426E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3308,15 +3475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="124" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>50</v>
       </c>
@@ -3345,7 +3512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3540,11 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3432,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3464,8 +3634,12 @@
         <f>(C5+E5+F5+1.5*G5+1.5*H5)/6</f>
         <v>0.14745370770734192</v>
       </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K16" si="0">(D5+C5+E5+F5+(5/3)*G5+(5/3)*H5)/(4+(10/3))</f>
+        <v>0.16537256146773549</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3494,11 +3668,15 @@
         <v>7.8841855417447301E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J23" si="0">(C6+E6+F6+1.5*G6+1.5*H6)/6</f>
+        <f t="shared" ref="J6:J23" si="1">(C6+E6+F6+1.5*G6+1.5*H6)/6</f>
         <v>0.16228032096466577</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.13384255682695831</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3527,11 +3705,15 @@
         <v>5.2786290862821501E-2</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.17797578855645982</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.17797578855645982</v>
+        <v>0.21866557141753437</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3560,11 +3742,15 @@
         <v>0.103401708218752</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.16783378836355647</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.16783378836355647</v>
+        <v>0.15765996801293505</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3593,14 +3779,18 @@
         <v>5.8908539652451401E-2</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-3.1966698252653546E-2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>-3.1966698252653546E-2</v>
-      </c>
-      <c r="K9" t="s">
+        <v>-2.842206486237827E-2</v>
+      </c>
+      <c r="L9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3629,14 +3819,18 @@
         <v>-0.23785102015447601</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-0.30866078940666902</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="0"/>
-        <v>-0.30866078940666902</v>
-      </c>
-      <c r="K10" t="s">
+        <v>-0.30049840825371293</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3665,11 +3859,15 @@
         <v>0.13786565010287399</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.4238952987913614</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>0.4238952987913614</v>
+        <v>0.42810178639738589</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3698,11 +3896,15 @@
         <v>0.53448309075442102</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.19727625152561498</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0.19727625152561498</v>
+        <v>0.16641844893338764</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3731,14 +3933,18 @@
         <v>-0.16611042757421601</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-9.4011095385548193E-2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>-9.4011095385548193E-2</v>
-      </c>
-      <c r="K13" t="s">
+        <v>-9.352877581926837E-2</v>
+      </c>
+      <c r="L13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3767,11 +3973,15 @@
         <v>6.0606552954924897E-2</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.14244402187539926</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.14244402187539926</v>
+        <v>0.13903411249764411</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3800,11 +4010,15 @@
         <v>8.7090217476895396E-2</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.11629403959211226</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.11629403959211226</v>
+        <v>0.1370724827865408</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3833,11 +4047,15 @@
         <v>6.6160099936201699E-2</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.12519756855861977</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="0"/>
-        <v>0.12519756855861977</v>
+        <v>0.10609098777904093</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3866,14 +4084,18 @@
         <v>-4.9285320104671897E-2</v>
       </c>
       <c r="J17">
-        <f>(C17+E17+F17+1.5*G17+1.5*H17)/6</f>
+        <f t="shared" si="1"/>
         <v>-1.211121360335205E-2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <f>(D17+C17+E17+F17+(5/3)*G17+(5/3)*H17)/(4+(10/3))</f>
+        <v>-4.4322056486918886E-2</v>
+      </c>
+      <c r="L17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3902,11 +4124,15 @@
         <v>0.12584211760120501</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8531684278418099E-2</v>
       </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K23" si="2">(D18+C18+E18+F18+(5/3)*G18+(5/3)*H18)/(4+(10/3))</f>
+        <v>6.5107085557156427E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3935,11 +4161,15 @@
         <v>7.7426882573473799E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9107421331524838E-2</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>8.5888988251927367E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3968,14 +4198,18 @@
         <v>2.1607946639413001E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7365677427918403E-2</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>4.6910816401821022E-2</v>
+      </c>
+      <c r="L20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4004,11 +4238,15 @@
         <v>0.16180305299282999</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21806361946803599</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.24520298570033727</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4037,11 +4275,15 @@
         <v>1.8690477454727999E-2</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28875632846893823</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0.31334500597701759</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -4070,8 +4312,12 @@
         <v>0.134572636711115</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11901437677650123</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0.14303381613264565</v>
       </c>
     </row>
   </sheetData>
